--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.3808932149186</v>
+        <v>210.7720944422746</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.0145606412254</v>
+        <v>288.3876782243306</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.6763288888849</v>
+        <v>260.8643629693339</v>
       </c>
       <c r="AD2" t="n">
-        <v>186380.8932149186</v>
+        <v>210772.0944422746</v>
       </c>
       <c r="AE2" t="n">
-        <v>255014.5606412254</v>
+        <v>288387.6782243305</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.969661156849269e-06</v>
+        <v>7.344912454741407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>230676.3288888849</v>
+        <v>260864.3629693339</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.48468840168</v>
+        <v>134.7905487744644</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.1700249115596</v>
+        <v>184.4263753724671</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.7425699025041</v>
+        <v>166.8249809510142</v>
       </c>
       <c r="AD3" t="n">
-        <v>110484.68840168</v>
+        <v>134790.5487744644</v>
       </c>
       <c r="AE3" t="n">
-        <v>151170.0249115596</v>
+        <v>184426.3753724671</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.330325212192077e-06</v>
+        <v>9.862497198608707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.851041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>136742.5699025041</v>
+        <v>166824.9809510142</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.9667989277973</v>
+        <v>137.7306005690654</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.3533315558938</v>
+        <v>188.4490839437692</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9041714916674</v>
+        <v>170.4637678621795</v>
       </c>
       <c r="AD2" t="n">
-        <v>125966.7989277973</v>
+        <v>137730.6005690654</v>
       </c>
       <c r="AE2" t="n">
-        <v>172353.3315558938</v>
+        <v>188449.0839437692</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.105769786099347e-06</v>
+        <v>9.732385198003278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.079166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>155904.1714916674</v>
+        <v>170463.7678621795</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.7281135431651</v>
+        <v>133.1701969540277</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.134845812413</v>
+        <v>182.2093385268695</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.8061868436967</v>
+        <v>164.819534990329</v>
       </c>
       <c r="AD3" t="n">
-        <v>109728.1135431651</v>
+        <v>133170.1969540277</v>
       </c>
       <c r="AE3" t="n">
-        <v>150134.845812413</v>
+        <v>182209.3385268695</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.251554061736967e-06</v>
+        <v>1.001027252660552e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.99375</v>
       </c>
       <c r="AH3" t="n">
-        <v>135806.1868436967</v>
+        <v>164819.534990329</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.4379063105662</v>
+        <v>169.6575520749952</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.4168508634172</v>
+        <v>232.1329475118527</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.339172465286</v>
+        <v>209.9785048020265</v>
       </c>
       <c r="AD2" t="n">
-        <v>138437.9063105662</v>
+        <v>169657.5520749952</v>
       </c>
       <c r="AE2" t="n">
-        <v>189416.8508634172</v>
+        <v>232132.9475118527</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.388325189896246e-06</v>
+        <v>9.345984216900282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.996875</v>
       </c>
       <c r="AH2" t="n">
-        <v>171339.172465286</v>
+        <v>209978.5048020266</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.1707102075632</v>
+        <v>147.9437100993714</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.6323319648001</v>
+        <v>202.4231109737197</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.1565444931273</v>
+        <v>183.104133365066</v>
       </c>
       <c r="AD2" t="n">
-        <v>126170.7102075632</v>
+        <v>147943.7100993714</v>
       </c>
       <c r="AE2" t="n">
-        <v>172632.3319648001</v>
+        <v>202423.1109737197</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.86513603112549e-06</v>
+        <v>9.87790817475188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.448958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>156156.5444931273</v>
+        <v>183104.133365066</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.5833933648197</v>
+        <v>198.6375174012281</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.6632361760535</v>
+        <v>271.7846145770225</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.6490606533628</v>
+        <v>245.8458724139734</v>
       </c>
       <c r="AD2" t="n">
-        <v>168583.3933648197</v>
+        <v>198637.5174012281</v>
       </c>
       <c r="AE2" t="n">
-        <v>230663.2361760536</v>
+        <v>271784.6145770225</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.847387609029816e-06</v>
+        <v>8.567380718013921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.735416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>208649.0606533628</v>
+        <v>245845.8724139734</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.9797693803617</v>
+        <v>145.8570892165044</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.3170312363939</v>
+        <v>199.568104226566</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.8215110623132</v>
+        <v>180.5216044548327</v>
       </c>
       <c r="AD2" t="n">
-        <v>133979.7693803617</v>
+        <v>145857.0892165044</v>
       </c>
       <c r="AE2" t="n">
-        <v>183317.0312363939</v>
+        <v>199568.104226566</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.915430316498125e-06</v>
+        <v>9.293917058081863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.169791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165821.5110623132</v>
+        <v>180521.6044548327</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.6561625159822</v>
+        <v>133.325282316594</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.0363992427661</v>
+        <v>182.4215331618159</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.7171358764863</v>
+        <v>165.0114780671332</v>
       </c>
       <c r="AD3" t="n">
-        <v>109656.1625159822</v>
+        <v>133325.282316594</v>
       </c>
       <c r="AE3" t="n">
-        <v>150036.3992427661</v>
+        <v>182421.533161816</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.28304815006328e-06</v>
+        <v>9.988995501724693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.948958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>135717.1358764863</v>
+        <v>165011.4780671332</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.582212570099</v>
+        <v>226.8103873239027</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.340699950309</v>
+        <v>310.3319781045081</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.539762972686</v>
+        <v>280.7143296679725</v>
       </c>
       <c r="AD2" t="n">
-        <v>197582.212570099</v>
+        <v>226810.3873239027</v>
       </c>
       <c r="AE2" t="n">
-        <v>270340.699950309</v>
+        <v>310331.9781045081</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.463390057450717e-06</v>
+        <v>7.940052881703716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.383333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>244539.762972686</v>
+        <v>280714.3296679725</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.4510387807394</v>
+        <v>133.8464189559473</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.5429134183006</v>
+        <v>183.1345753027048</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.5528529096603</v>
+        <v>165.6564684668568</v>
       </c>
       <c r="AD2" t="n">
-        <v>122451.0387807394</v>
+        <v>133846.4189559473</v>
       </c>
       <c r="AE2" t="n">
-        <v>167542.9134183006</v>
+        <v>183134.5753027048</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.106279307411709e-06</v>
+        <v>1.000823687408301e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>151552.8529096603</v>
+        <v>165656.4684668567</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.963278845117</v>
+        <v>134.3586590203248</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.2437828728183</v>
+        <v>183.8354447572225</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.1868323671155</v>
+        <v>166.290447924312</v>
       </c>
       <c r="AD3" t="n">
-        <v>122963.278845117</v>
+        <v>134358.6590203248</v>
       </c>
       <c r="AE3" t="n">
-        <v>168243.7828728184</v>
+        <v>183835.4447572225</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.105346369657614e-06</v>
+        <v>1.000640832897812e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.172916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>152186.8323671155</v>
+        <v>166290.447924312</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.4008758916812</v>
+        <v>134.0468426662366</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.4742783404607</v>
+        <v>183.4088038651925</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.4907682673194</v>
+        <v>165.904525040223</v>
       </c>
       <c r="AD2" t="n">
-        <v>122400.8758916811</v>
+        <v>134046.8426662366</v>
       </c>
       <c r="AE2" t="n">
-        <v>167474.2783404607</v>
+        <v>183408.8038651925</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180470468246556e-06</v>
+        <v>9.96050653155936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.063541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>151490.7682673194</v>
+        <v>165904.525040223</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.6750764126758</v>
+        <v>133.3210431872313</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.4812074732729</v>
+        <v>182.4157329980048</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.5924746899121</v>
+        <v>165.0062314628156</v>
       </c>
       <c r="AD3" t="n">
-        <v>121675.0764126758</v>
+        <v>133321.0431872313</v>
       </c>
       <c r="AE3" t="n">
-        <v>166481.2074732729</v>
+        <v>182415.7329980048</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.21581540262584e-06</v>
+        <v>1.002846434579656e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.042708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>150592.4746899121</v>
+        <v>165006.2314628156</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.9886278061881</v>
+        <v>187.1743386849269</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.0082311151012</v>
+        <v>256.100187737634</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.7246385315582</v>
+        <v>231.6583452588997</v>
       </c>
       <c r="AD2" t="n">
-        <v>162988.6278061881</v>
+        <v>187174.3386849269</v>
       </c>
       <c r="AE2" t="n">
-        <v>223008.2311151012</v>
+        <v>256100.187737634</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.326670770400372e-06</v>
+        <v>8.060259482749112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.540625</v>
       </c>
       <c r="AH2" t="n">
-        <v>201724.6385315582</v>
+        <v>231658.3452588997</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.3122021887866</v>
+        <v>134.4125722129537</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.9340216655243</v>
+        <v>183.9092111658595</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.5290904750377</v>
+        <v>166.3571741704405</v>
       </c>
       <c r="AD3" t="n">
-        <v>110312.2021887866</v>
+        <v>134412.5722129537</v>
       </c>
       <c r="AE3" t="n">
-        <v>150934.0216655243</v>
+        <v>183909.2111658595</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.312498213039264e-06</v>
+        <v>9.89678123689893e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.883333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>136529.0904750377</v>
+        <v>166357.1741704405</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.274030290094</v>
+        <v>146.3444050677196</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.0372108261076</v>
+        <v>200.2348712730564</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.8090980736354</v>
+        <v>181.1247361902196</v>
       </c>
       <c r="AD2" t="n">
-        <v>124274.030290094</v>
+        <v>146344.4050677196</v>
       </c>
       <c r="AE2" t="n">
-        <v>170037.2108261077</v>
+        <v>200234.8712730564</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.966037654786129e-06</v>
+        <v>9.954409343672206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.336458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>153809.0980736354</v>
+        <v>181124.7361902196</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.9509666468793</v>
+        <v>154.2414646606231</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.9093779488707</v>
+        <v>211.0399766017424</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.548202228897</v>
+        <v>190.8986174313998</v>
       </c>
       <c r="AD2" t="n">
-        <v>132950.9666468793</v>
+        <v>154241.4646606231</v>
       </c>
       <c r="AE2" t="n">
-        <v>181909.3779488707</v>
+        <v>211039.9766017424</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.579538998394739e-06</v>
+        <v>9.580681979471283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.769791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>164548.202228897</v>
+        <v>190898.6174313998</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.7102641010886</v>
+        <v>177.1557831608557</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.4178969119299</v>
+        <v>242.3923580821308</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.9541537681251</v>
+        <v>219.2587716266537</v>
       </c>
       <c r="AD2" t="n">
-        <v>156710.2641010886</v>
+        <v>177155.7831608557</v>
       </c>
       <c r="AE2" t="n">
-        <v>214417.8969119299</v>
+        <v>242392.3580821308</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.148649745388838e-06</v>
+        <v>9.018566186128569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.304166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>193954.1537681251</v>
+        <v>219258.7716266537</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.2639550009694</v>
+        <v>270.8864278786658</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.4762311635496</v>
+        <v>370.638761289354</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.8406048912115</v>
+        <v>335.2655181066659</v>
       </c>
       <c r="AD2" t="n">
-        <v>242263.9550009694</v>
+        <v>270886.4278786658</v>
       </c>
       <c r="AE2" t="n">
-        <v>331476.2311635496</v>
+        <v>370638.7612893539</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.939992544531694e-06</v>
+        <v>6.992851539725424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.51875</v>
       </c>
       <c r="AH2" t="n">
-        <v>299840.6048912114</v>
+        <v>335265.5181066659</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.7752823378709</v>
+        <v>133.2986281475754</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.6183136408983</v>
+        <v>182.3850637518659</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.716495637329</v>
+        <v>164.9784892464836</v>
       </c>
       <c r="AD2" t="n">
-        <v>121775.2823378709</v>
+        <v>133298.6281475754</v>
       </c>
       <c r="AE2" t="n">
-        <v>166618.3136408983</v>
+        <v>182385.0637518659</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.164329911785928e-06</v>
+        <v>1.002178601853798e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.104166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>150716.495637329</v>
+        <v>164978.4892464836</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.6793304667126</v>
+        <v>133.202676276417</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.4870280576816</v>
+        <v>182.2537781686492</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.597739765914</v>
+        <v>164.8597333750686</v>
       </c>
       <c r="AD3" t="n">
-        <v>121679.3304667126</v>
+        <v>133202.676276417</v>
       </c>
       <c r="AE3" t="n">
-        <v>166487.0280576816</v>
+        <v>182253.7781686492</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.181255582622756e-06</v>
+        <v>1.005463160629948e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>150597.739765914</v>
+        <v>164859.7333750686</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.0200946505032</v>
+        <v>170.8231638581596</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.159379569541</v>
+        <v>233.7277889767401</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.9610107124436</v>
+        <v>211.4211368358796</v>
       </c>
       <c r="AD2" t="n">
-        <v>147020.0946505032</v>
+        <v>170823.1638581596</v>
       </c>
       <c r="AE2" t="n">
-        <v>201159.379569541</v>
+        <v>233727.7889767401</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.625993441461218e-06</v>
+        <v>8.68017814609287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.338541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>181961.0107124436</v>
+        <v>211421.1368358796</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.668449520172</v>
+        <v>133.556770073849</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.0532108639629</v>
+        <v>182.7382649238112</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.7323430201513</v>
+        <v>165.2979813942996</v>
       </c>
       <c r="AD3" t="n">
-        <v>109668.449520172</v>
+        <v>133556.770073849</v>
       </c>
       <c r="AE3" t="n">
-        <v>150053.2108639629</v>
+        <v>182738.2649238112</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.308497618231178e-06</v>
+        <v>9.960823679810792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.909375</v>
       </c>
       <c r="AH3" t="n">
-        <v>135732.3430201513</v>
+        <v>165297.9813942996</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.7646322229473</v>
+        <v>379.4802561845426</v>
       </c>
       <c r="AB2" t="n">
-        <v>456.6714944637969</v>
+        <v>519.22162799904</v>
       </c>
       <c r="AC2" t="n">
-        <v>413.0874079746394</v>
+        <v>469.6678445549428</v>
       </c>
       <c r="AD2" t="n">
-        <v>333764.6322229473</v>
+        <v>379480.2561845426</v>
       </c>
       <c r="AE2" t="n">
-        <v>456671.4944637969</v>
+        <v>519221.6279990401</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.228739365068757e-06</v>
+        <v>5.573908014050341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.904166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>413087.4079746394</v>
+        <v>469667.8445549428</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.2828019957773</v>
+        <v>150.9106959444628</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.8904332452323</v>
+        <v>206.4826719011492</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.0082585636391</v>
+        <v>186.7762554952124</v>
       </c>
       <c r="AD2" t="n">
-        <v>129282.8019957773</v>
+        <v>150910.6959444628</v>
       </c>
       <c r="AE2" t="n">
-        <v>176890.4332452323</v>
+        <v>206482.6719011492</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.729487204864744e-06</v>
+        <v>9.739354766364219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.596875</v>
       </c>
       <c r="AH2" t="n">
-        <v>160008.2585636391</v>
+        <v>186776.2554952124</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.9593712155428</v>
+        <v>134.2207680528673</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.2384362816426</v>
+        <v>183.646776252227</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.1819960470976</v>
+        <v>166.1197856766353</v>
       </c>
       <c r="AD2" t="n">
-        <v>122959.3712155428</v>
+        <v>134220.7680528673</v>
       </c>
       <c r="AE2" t="n">
-        <v>168238.4362816426</v>
+        <v>183646.776252227</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.048104901645632e-06</v>
+        <v>1.000122522575334e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.24375</v>
       </c>
       <c r="AH2" t="n">
-        <v>152181.9960470976</v>
+        <v>166119.7856766353</v>
       </c>
     </row>
   </sheetData>
